--- a/src/store/xlsx/International-2023-4-16.xlsx
+++ b/src/store/xlsx/International-2023-4-16.xlsx
@@ -106,6 +106,39 @@
     <t>407</t>
   </si>
   <si>
+    <t>8A</t>
+  </si>
+  <si>
+    <t>Jako8900_pocarr</t>
+  </si>
+  <si>
+    <t>13:35</t>
+  </si>
+  <si>
+    <t>PS.eu</t>
+  </si>
+  <si>
+    <t>3575892287</t>
+  </si>
+  <si>
+    <t>jako8900</t>
+  </si>
+  <si>
+    <t>Hot Hyper $82 [Progressive KO], $5K Gtd</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>12C</t>
   </si>
   <si>
@@ -130,9 +163,6 @@
     <t>286</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>10:15</t>
   </si>
   <si>
@@ -145,9 +175,6 @@
     <t>30.00</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>211</t>
   </si>
   <si>
@@ -322,9 +349,6 @@
     <t>20:15</t>
   </si>
   <si>
-    <t>PS.eu</t>
-  </si>
-  <si>
     <t>3575892401</t>
   </si>
   <si>
@@ -433,30 +457,6 @@
     <t>75</t>
   </si>
   <si>
-    <t>8A</t>
-  </si>
-  <si>
-    <t>Jako8900_pocarr</t>
-  </si>
-  <si>
-    <t>13:35</t>
-  </si>
-  <si>
-    <t>3575892287</t>
-  </si>
-  <si>
-    <t>jako8900</t>
-  </si>
-  <si>
-    <t>Hot Hyper $82 [Progressive KO], $5K Gtd</t>
-  </si>
-  <si>
-    <t>82.00</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
     <t>4A</t>
   </si>
   <si>
@@ -475,6 +475,30 @@
     <t>968</t>
   </si>
   <si>
+    <t>9C</t>
+  </si>
+  <si>
+    <t>johnymcc_pocarr</t>
+  </si>
+  <si>
+    <t>17:43</t>
+  </si>
+  <si>
+    <t>3573545474</t>
+  </si>
+  <si>
+    <t>johnymcc</t>
+  </si>
+  <si>
+    <t>Fenomeno Mega Sat: $5.50 NLHE, 10 Seats Gtd</t>
+  </si>
+  <si>
+    <t>5.50</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
     <t>10A</t>
   </si>
   <si>
@@ -580,28 +604,52 @@
     <t>LudiKure</t>
   </si>
   <si>
-    <t>9C</t>
-  </si>
-  <si>
-    <t>johnymcc_pocarr</t>
-  </si>
-  <si>
-    <t>17:43</t>
-  </si>
-  <si>
-    <t>3573545474</t>
-  </si>
-  <si>
-    <t>johnymcc</t>
-  </si>
-  <si>
-    <t>Fenomeno Mega Sat: $5.50 NLHE, 10 Seats Gtd</t>
-  </si>
-  <si>
-    <t>5.50</t>
-  </si>
-  <si>
-    <t>125</t>
+    <t>13A</t>
+  </si>
+  <si>
+    <t>planty0708_pocarr2</t>
+  </si>
+  <si>
+    <t>17:06</t>
+  </si>
+  <si>
+    <t>3940652201608709</t>
+  </si>
+  <si>
+    <t>getplunted</t>
+  </si>
+  <si>
+    <t>$108 Mega to GGMasters High Rollers $1K, 4 Seats</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>16:06</t>
+  </si>
+  <si>
+    <t>3940652350899717</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>17:00</t>
+  </si>
+  <si>
+    <t>3940652061886725</t>
+  </si>
+  <si>
+    <t>$125 Mega Step to Sunday Main Event Mania, 10 PKGS</t>
+  </si>
+  <si>
+    <t>125.00</t>
+  </si>
+  <si>
+    <t>18</t>
   </si>
   <si>
     <t>6B</t>
@@ -629,54 +677,6 @@
   </si>
   <si>
     <t>inter44</t>
-  </si>
-  <si>
-    <t>13A</t>
-  </si>
-  <si>
-    <t>planty0708_pocarr2</t>
-  </si>
-  <si>
-    <t>17:06</t>
-  </si>
-  <si>
-    <t>3940652201608709</t>
-  </si>
-  <si>
-    <t>getplunted</t>
-  </si>
-  <si>
-    <t>$108 Mega to GGMasters High Rollers $1K, 4 Seats</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>16:06</t>
-  </si>
-  <si>
-    <t>3940652350899717</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>17:00</t>
-  </si>
-  <si>
-    <t>3940652061886725</t>
-  </si>
-  <si>
-    <t>$125 Mega Step to Sunday Main Event Mania, 10 PKGS</t>
-  </si>
-  <si>
-    <t>125.00</t>
-  </si>
-  <si>
-    <t>18</t>
   </si>
   <si>
     <t>5C</t>
@@ -1279,589 +1279,589 @@
         <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>6458</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
+        <v>6014</v>
+      </c>
+      <c r="L5" t="s">
+        <v>39</v>
       </c>
       <c r="M5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N5">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
         <v>19</v>
       </c>
       <c r="F6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>6458</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6">
+        <v>71</v>
+      </c>
+      <c r="O6" t="s">
         <v>41</v>
-      </c>
-      <c r="G6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>7204</v>
-      </c>
-      <c r="L6" t="s">
-        <v>44</v>
-      </c>
-      <c r="M6" t="s">
-        <v>45</v>
-      </c>
-      <c r="N6">
-        <v>74</v>
-      </c>
-      <c r="O6">
-        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>4260</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
+        <v>7204</v>
+      </c>
+      <c r="L7" t="s">
+        <v>39</v>
       </c>
       <c r="M7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N7">
-        <v>67</v>
-      </c>
-      <c r="O7" t="s">
-        <v>39</v>
+        <v>74</v>
+      </c>
+      <c r="O7">
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E8" t="s">
         <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" t="s">
-        <v>54</v>
+        <v>58</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>1288</v>
-      </c>
-      <c r="L8" t="s">
-        <v>44</v>
+        <v>4260</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="N8">
-        <v>72</v>
-      </c>
-      <c r="O8">
-        <v>72</v>
+        <v>67</v>
+      </c>
+      <c r="O8" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E9" t="s">
         <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="I9" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="J9" t="s">
+        <v>63</v>
       </c>
       <c r="K9">
-        <v>2999</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
+        <v>1288</v>
+      </c>
+      <c r="L9" t="s">
+        <v>39</v>
       </c>
       <c r="M9" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="N9">
-        <v>71</v>
-      </c>
-      <c r="O9" t="s">
-        <v>39</v>
+        <v>72</v>
+      </c>
+      <c r="O9">
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="E10" t="s">
         <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1500000</v>
+        <v>2999</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="N10">
-        <v>69</v>
-      </c>
-      <c r="O10">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="O10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
         <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="I11" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>3018</v>
+        <v>1500000</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="N11">
-        <v>66</v>
-      </c>
-      <c r="O11" t="s">
-        <v>39</v>
+        <v>69</v>
+      </c>
+      <c r="O11">
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E12" t="s">
         <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="I12" t="s">
-        <v>65</v>
-      </c>
-      <c r="J12" t="s">
+        <v>58</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>3018</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12" t="s">
+        <v>70</v>
+      </c>
+      <c r="N12">
         <v>66</v>
       </c>
-      <c r="K12">
-        <v>7580</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12" t="s">
-        <v>67</v>
-      </c>
-      <c r="N12">
-        <v>69</v>
-      </c>
       <c r="O12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
         <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E13" t="s">
         <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="I13" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="J13" t="s">
+        <v>75</v>
+      </c>
+      <c r="K13">
+        <v>7580</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13" t="s">
+        <v>76</v>
+      </c>
+      <c r="N13">
         <v>69</v>
       </c>
-      <c r="K13">
-        <v>2686</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13" t="s">
-        <v>70</v>
-      </c>
-      <c r="N13">
-        <v>71</v>
-      </c>
       <c r="O13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
         <v>71</v>
-      </c>
-      <c r="B14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" t="s">
-        <v>73</v>
       </c>
       <c r="E14" t="s">
         <v>19</v>
       </c>
       <c r="F14" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="J14" t="s">
+        <v>78</v>
       </c>
       <c r="K14">
-        <v>1500000</v>
+        <v>2686</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="N14">
-        <v>72</v>
-      </c>
-      <c r="O14">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="O14" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>1500000</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15" t="s">
+        <v>85</v>
+      </c>
+      <c r="N15">
         <v>72</v>
       </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G15" t="s">
-        <v>80</v>
-      </c>
-      <c r="H15" t="s">
-        <v>81</v>
-      </c>
-      <c r="I15" t="s">
-        <v>82</v>
-      </c>
-      <c r="J15" t="s">
-        <v>82</v>
-      </c>
-      <c r="K15">
-        <v>150000</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15" t="s">
-        <v>83</v>
-      </c>
-      <c r="N15" t="s">
-        <v>39</v>
-      </c>
       <c r="O15">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C16" t="s">
         <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="F16" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G16" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="H16" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="I16" t="s">
-        <v>23</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
+        <v>91</v>
+      </c>
+      <c r="J16" t="s">
+        <v>91</v>
       </c>
       <c r="K16">
-        <v>1500000</v>
+        <v>150000</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16" t="s">
-        <v>86</v>
-      </c>
-      <c r="N16">
-        <v>72</v>
+        <v>92</v>
+      </c>
+      <c r="N16" t="s">
+        <v>41</v>
       </c>
       <c r="O16">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B17" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E17" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="F17" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G17" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="H17" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="I17" t="s">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>3150</v>
+        <v>1500000</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1870,480 +1870,480 @@
         <v>95</v>
       </c>
       <c r="N17">
-        <v>76</v>
-      </c>
-      <c r="O17" t="s">
-        <v>39</v>
+        <v>72</v>
+      </c>
+      <c r="O17">
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C18" t="s">
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E18" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="F18" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G18" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="H18" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="I18" t="s">
-        <v>99</v>
-      </c>
-      <c r="J18" t="s">
-        <v>100</v>
+        <v>103</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>840</v>
+        <v>3150</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="N18">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O18" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B19" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C19" t="s">
         <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E19" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F19" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G19" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I19" t="s">
-        <v>107</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
+        <v>108</v>
+      </c>
+      <c r="J19" t="s">
+        <v>109</v>
       </c>
       <c r="K19">
-        <v>4000</v>
+        <v>840</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N19">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B20" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C20" t="s">
         <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E20" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="F20" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G20" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="H20" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I20" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2700</v>
+        <v>4000</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="N20">
-        <v>77</v>
-      </c>
-      <c r="O20">
         <v>73</v>
+      </c>
+      <c r="O20" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B21" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C21" t="s">
         <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="F21" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G21" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="H21" t="s">
-        <v>36</v>
+        <v>119</v>
       </c>
       <c r="I21" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>7415</v>
+        <v>2700</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="N21">
-        <v>72</v>
-      </c>
-      <c r="O21" t="s">
-        <v>39</v>
+        <v>77</v>
+      </c>
+      <c r="O21">
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B22" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C22" t="s">
         <v>17</v>
       </c>
       <c r="D22" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E22" t="s">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="F22" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G22" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="H22" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>7980</v>
+        <v>7415</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="N22">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="O22" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C23" t="s">
         <v>17</v>
       </c>
       <c r="D23" t="s">
+        <v>125</v>
+      </c>
+      <c r="E23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" t="s">
+        <v>126</v>
+      </c>
+      <c r="G23" t="s">
         <v>113</v>
       </c>
-      <c r="E23" t="s">
-        <v>90</v>
-      </c>
-      <c r="F23" t="s">
-        <v>122</v>
-      </c>
-      <c r="G23" t="s">
-        <v>92</v>
-      </c>
       <c r="H23" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="I23" t="s">
-        <v>120</v>
-      </c>
-      <c r="J23" t="s">
-        <v>124</v>
+        <v>128</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>1000</v>
+        <v>7980</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="N23">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O23" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B24" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C24" t="s">
         <v>17</v>
       </c>
       <c r="D24" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E24" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F24" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G24" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H24" t="s">
+        <v>131</v>
+      </c>
+      <c r="I24" t="s">
         <v>128</v>
       </c>
-      <c r="I24" t="s">
-        <v>129</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
+      <c r="J24" t="s">
+        <v>132</v>
       </c>
       <c r="K24">
-        <v>4945</v>
+        <v>1000</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="N24">
         <v>67</v>
       </c>
       <c r="O24" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C25" t="s">
         <v>17</v>
       </c>
       <c r="D25" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E25" t="s">
-        <v>103</v>
+        <v>34</v>
       </c>
       <c r="F25" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G25" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="H25" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="I25" t="s">
-        <v>99</v>
+        <v>137</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2000</v>
+        <v>4945</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="N25">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="O25" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C26" t="s">
         <v>17</v>
       </c>
       <c r="D26" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E26" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="F26" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G26" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="H26" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="I26" t="s">
-        <v>120</v>
-      </c>
-      <c r="J26" t="s">
-        <v>138</v>
+        <v>108</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
       <c r="M26" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="N26">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="O26" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>140</v>
+        <v>96</v>
       </c>
       <c r="B27" t="s">
-        <v>141</v>
+        <v>97</v>
       </c>
       <c r="C27" t="s">
         <v>17</v>
       </c>
       <c r="D27" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E27" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F27" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G27" t="s">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="H27" t="s">
         <v>145</v>
       </c>
       <c r="I27" t="s">
+        <v>128</v>
+      </c>
+      <c r="J27" t="s">
         <v>146</v>
       </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
       <c r="K27">
-        <v>6014</v>
-      </c>
-      <c r="L27" t="s">
-        <v>44</v>
+        <v>1000</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
       </c>
       <c r="M27" t="s">
         <v>147</v>
       </c>
       <c r="N27">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="O27" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -2404,13 +2404,13 @@
         <v>17</v>
       </c>
       <c r="D29" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E29" t="s">
         <v>19</v>
       </c>
       <c r="F29" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G29" t="s">
         <v>152</v>
@@ -2431,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="N29">
         <v>72</v>
@@ -2498,486 +2498,486 @@
         <v>17</v>
       </c>
       <c r="D31" t="s">
-        <v>117</v>
+        <v>156</v>
       </c>
       <c r="E31" t="s">
-        <v>103</v>
+        <v>34</v>
       </c>
       <c r="F31" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="G31" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H31" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="I31" t="s">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
       <c r="K31">
-        <v>7980</v>
+        <v>1090</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
       <c r="M31" t="s">
-        <v>121</v>
-      </c>
-      <c r="N31">
-        <v>66</v>
-      </c>
-      <c r="O31" t="s">
-        <v>39</v>
+        <v>161</v>
+      </c>
+      <c r="N31" t="s">
+        <v>41</v>
+      </c>
+      <c r="O31">
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B32" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C32" t="s">
         <v>17</v>
       </c>
       <c r="D32" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="E32" t="s">
-        <v>103</v>
+        <v>34</v>
       </c>
       <c r="F32" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="G32" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="H32" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="I32" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="J32">
         <v>0</v>
       </c>
       <c r="K32">
-        <v>3702</v>
+        <v>7980</v>
       </c>
       <c r="L32">
         <v>0</v>
       </c>
       <c r="M32" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="N32">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="O32" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B33" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C33" t="s">
         <v>17</v>
       </c>
       <c r="D33" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E33" t="s">
-        <v>103</v>
+        <v>34</v>
       </c>
       <c r="F33" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G33" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="H33" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I33" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="J33">
         <v>0</v>
       </c>
       <c r="K33">
-        <v>1323</v>
+        <v>3702</v>
       </c>
       <c r="L33">
         <v>0</v>
       </c>
       <c r="M33" t="s">
-        <v>165</v>
-      </c>
-      <c r="N33" t="s">
-        <v>39</v>
-      </c>
-      <c r="O33">
-        <v>65</v>
+        <v>169</v>
+      </c>
+      <c r="N33">
+        <v>71</v>
+      </c>
+      <c r="O33" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B34" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C34" t="s">
         <v>17</v>
       </c>
       <c r="D34" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E34" t="s">
-        <v>103</v>
+        <v>34</v>
       </c>
       <c r="F34" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="G34" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="H34" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I34" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="J34">
         <v>0</v>
       </c>
       <c r="K34">
-        <v>7327</v>
+        <v>1323</v>
       </c>
       <c r="L34">
         <v>0</v>
       </c>
       <c r="M34" t="s">
-        <v>169</v>
-      </c>
-      <c r="N34">
-        <v>71</v>
-      </c>
-      <c r="O34" t="s">
-        <v>39</v>
+        <v>173</v>
+      </c>
+      <c r="N34" t="s">
+        <v>41</v>
+      </c>
+      <c r="O34">
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B35" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C35" t="s">
         <v>17</v>
       </c>
       <c r="D35" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E35" t="s">
-        <v>103</v>
+        <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G35" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="H35" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="I35" t="s">
-        <v>120</v>
-      </c>
-      <c r="J35" t="s">
-        <v>173</v>
+        <v>168</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>2578</v>
+        <v>7327</v>
       </c>
       <c r="L35">
         <v>0</v>
       </c>
       <c r="M35" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="N35">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="O35" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B36" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C36" t="s">
         <v>17</v>
       </c>
       <c r="D36" t="s">
-        <v>84</v>
+        <v>178</v>
       </c>
       <c r="E36" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F36" t="s">
-        <v>85</v>
+        <v>179</v>
       </c>
       <c r="G36" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="H36" t="s">
-        <v>22</v>
+        <v>180</v>
       </c>
       <c r="I36" t="s">
-        <v>23</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
+        <v>128</v>
+      </c>
+      <c r="J36" t="s">
+        <v>181</v>
       </c>
       <c r="K36">
-        <v>1500000</v>
+        <v>2578</v>
       </c>
       <c r="L36">
         <v>0</v>
       </c>
       <c r="M36" t="s">
-        <v>86</v>
+        <v>182</v>
       </c>
       <c r="N36">
-        <v>72</v>
-      </c>
-      <c r="O36">
-        <v>70</v>
+        <v>66</v>
+      </c>
+      <c r="O36" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B37" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C37" t="s">
         <v>17</v>
       </c>
       <c r="D37" t="s">
-        <v>176</v>
+        <v>93</v>
       </c>
       <c r="E37" t="s">
-        <v>177</v>
+        <v>19</v>
       </c>
       <c r="F37" t="s">
-        <v>178</v>
+        <v>94</v>
       </c>
       <c r="G37" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H37" t="s">
-        <v>180</v>
+        <v>22</v>
       </c>
       <c r="I37" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
       <c r="K37">
-        <v>522</v>
-      </c>
-      <c r="L37" t="s">
-        <v>44</v>
+        <v>1500000</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
       </c>
       <c r="M37" t="s">
-        <v>181</v>
+        <v>95</v>
       </c>
       <c r="N37">
-        <v>65</v>
-      </c>
-      <c r="O37" t="s">
-        <v>39</v>
+        <v>72</v>
+      </c>
+      <c r="O37">
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B38" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C38" t="s">
         <v>17</v>
       </c>
       <c r="D38" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E38" t="s">
-        <v>103</v>
+        <v>185</v>
       </c>
       <c r="F38" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="G38" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="H38" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="I38" t="s">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="J38">
         <v>0</v>
       </c>
       <c r="K38">
-        <v>1245</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
+        <v>522</v>
+      </c>
+      <c r="L38" t="s">
+        <v>39</v>
       </c>
       <c r="M38" t="s">
-        <v>184</v>
-      </c>
-      <c r="N38" t="s">
-        <v>39</v>
-      </c>
-      <c r="O38">
+        <v>189</v>
+      </c>
+      <c r="N38">
         <v>65</v>
+      </c>
+      <c r="O38" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B39" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C39" t="s">
         <v>17</v>
       </c>
       <c r="D39" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="E39" t="s">
-        <v>103</v>
+        <v>34</v>
       </c>
       <c r="F39" t="s">
-        <v>132</v>
+        <v>191</v>
       </c>
       <c r="G39" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="H39" t="s">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="I39" t="s">
-        <v>99</v>
-      </c>
-      <c r="J39" t="s">
-        <v>185</v>
+        <v>128</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
       </c>
       <c r="K39">
-        <v>2000</v>
+        <v>1245</v>
       </c>
       <c r="L39">
         <v>0</v>
       </c>
       <c r="M39" t="s">
-        <v>134</v>
-      </c>
-      <c r="N39">
-        <v>70</v>
-      </c>
-      <c r="O39" t="s">
-        <v>39</v>
+        <v>192</v>
+      </c>
+      <c r="N39" t="s">
+        <v>41</v>
+      </c>
+      <c r="O39">
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="B40" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="C40" t="s">
         <v>17</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>139</v>
       </c>
       <c r="E40" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F40" t="s">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="G40" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="H40" t="s">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="I40" t="s">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="J40" t="s">
-        <v>23</v>
+        <v>193</v>
       </c>
       <c r="K40">
-        <v>1500000</v>
+        <v>2000</v>
       </c>
       <c r="L40">
         <v>0</v>
       </c>
       <c r="M40" t="s">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="N40">
-        <v>72</v>
-      </c>
-      <c r="O40">
         <v>70</v>
+      </c>
+      <c r="O40" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B41" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="C41" t="s">
         <v>17</v>
       </c>
       <c r="D41" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E41" t="s">
         <v>19</v>
       </c>
       <c r="F41" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G41" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="H41" t="s">
         <v>22</v>
@@ -2985,8 +2985,8 @@
       <c r="I41" t="s">
         <v>23</v>
       </c>
-      <c r="J41">
-        <v>0</v>
+      <c r="J41" t="s">
+        <v>23</v>
       </c>
       <c r="K41">
         <v>1500000</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N41">
         <v>72</v>
@@ -3006,49 +3006,49 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B42" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C42" t="s">
         <v>17</v>
       </c>
       <c r="D42" t="s">
-        <v>191</v>
+        <v>93</v>
       </c>
       <c r="E42" t="s">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="F42" t="s">
-        <v>192</v>
+        <v>94</v>
       </c>
       <c r="G42" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="H42" t="s">
-        <v>194</v>
+        <v>22</v>
       </c>
       <c r="I42" t="s">
-        <v>195</v>
+        <v>23</v>
       </c>
       <c r="J42">
         <v>0</v>
       </c>
       <c r="K42">
-        <v>1090</v>
+        <v>1500000</v>
       </c>
       <c r="L42">
         <v>0</v>
       </c>
       <c r="M42" t="s">
-        <v>196</v>
-      </c>
-      <c r="N42" t="s">
-        <v>39</v>
+        <v>95</v>
+      </c>
+      <c r="N42">
+        <v>72</v>
       </c>
       <c r="O42">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
@@ -3065,7 +3065,7 @@
         <v>199</v>
       </c>
       <c r="E43" t="s">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="F43" t="s">
         <v>200</v>
@@ -3077,13 +3077,13 @@
         <v>202</v>
       </c>
       <c r="I43" t="s">
-        <v>120</v>
-      </c>
-      <c r="J43" t="s">
         <v>203</v>
       </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
       <c r="K43">
-        <v>9006</v>
+        <v>4300</v>
       </c>
       <c r="L43">
         <v>0</v>
@@ -3091,11 +3091,11 @@
       <c r="M43" t="s">
         <v>204</v>
       </c>
-      <c r="N43">
-        <v>67</v>
-      </c>
-      <c r="O43">
-        <v>66</v>
+      <c r="N43" t="s">
+        <v>41</v>
+      </c>
+      <c r="O43" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
@@ -3109,40 +3109,40 @@
         <v>17</v>
       </c>
       <c r="D44" t="s">
-        <v>73</v>
+        <v>205</v>
       </c>
       <c r="E44" t="s">
         <v>19</v>
       </c>
       <c r="F44" t="s">
-        <v>74</v>
+        <v>206</v>
       </c>
       <c r="G44" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H44" t="s">
-        <v>22</v>
+        <v>202</v>
       </c>
       <c r="I44" t="s">
-        <v>23</v>
+        <v>203</v>
       </c>
       <c r="J44">
         <v>0</v>
       </c>
       <c r="K44">
-        <v>1500000</v>
-      </c>
-      <c r="L44">
-        <v>0</v>
+        <v>4200</v>
+      </c>
+      <c r="L44" t="s">
+        <v>39</v>
       </c>
       <c r="M44" t="s">
-        <v>76</v>
-      </c>
-      <c r="N44">
-        <v>72</v>
-      </c>
-      <c r="O44">
-        <v>70</v>
+        <v>207</v>
+      </c>
+      <c r="N44" t="s">
+        <v>41</v>
+      </c>
+      <c r="O44" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
@@ -3156,181 +3156,181 @@
         <v>17</v>
       </c>
       <c r="D45" t="s">
-        <v>182</v>
+        <v>208</v>
       </c>
       <c r="E45" t="s">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="F45" t="s">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="G45" t="s">
         <v>201</v>
       </c>
       <c r="H45" t="s">
-        <v>164</v>
+        <v>210</v>
       </c>
       <c r="I45" t="s">
-        <v>120</v>
-      </c>
-      <c r="J45" t="s">
-        <v>120</v>
+        <v>211</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
       </c>
       <c r="K45">
-        <v>1245</v>
+        <v>2415</v>
       </c>
       <c r="L45">
         <v>0</v>
       </c>
       <c r="M45" t="s">
-        <v>184</v>
-      </c>
-      <c r="N45" t="s">
-        <v>39</v>
+        <v>212</v>
+      </c>
+      <c r="N45">
+        <v>81</v>
       </c>
       <c r="O45">
-        <v>66</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="B46" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="C46" t="s">
         <v>17</v>
       </c>
       <c r="D46" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="E46" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F46" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="G46" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="H46" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="I46" t="s">
-        <v>212</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
+        <v>128</v>
+      </c>
+      <c r="J46" t="s">
+        <v>219</v>
       </c>
       <c r="K46">
-        <v>4300</v>
+        <v>9006</v>
       </c>
       <c r="L46">
         <v>0</v>
       </c>
       <c r="M46" t="s">
-        <v>213</v>
-      </c>
-      <c r="N46" t="s">
-        <v>39</v>
-      </c>
-      <c r="O46" t="s">
-        <v>39</v>
+        <v>220</v>
+      </c>
+      <c r="N46">
+        <v>67</v>
+      </c>
+      <c r="O46">
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="B47" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="C47" t="s">
         <v>17</v>
       </c>
       <c r="D47" t="s">
-        <v>214</v>
+        <v>82</v>
       </c>
       <c r="E47" t="s">
         <v>19</v>
       </c>
       <c r="F47" t="s">
-        <v>215</v>
+        <v>83</v>
       </c>
       <c r="G47" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H47" t="s">
-        <v>211</v>
+        <v>22</v>
       </c>
       <c r="I47" t="s">
-        <v>212</v>
+        <v>23</v>
       </c>
       <c r="J47">
         <v>0</v>
       </c>
       <c r="K47">
-        <v>4200</v>
-      </c>
-      <c r="L47" t="s">
-        <v>44</v>
+        <v>1500000</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
       </c>
       <c r="M47" t="s">
-        <v>216</v>
-      </c>
-      <c r="N47" t="s">
-        <v>39</v>
-      </c>
-      <c r="O47" t="s">
-        <v>39</v>
+        <v>85</v>
+      </c>
+      <c r="N47">
+        <v>72</v>
+      </c>
+      <c r="O47">
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="B48" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="C48" t="s">
         <v>17</v>
       </c>
       <c r="D48" t="s">
+        <v>190</v>
+      </c>
+      <c r="E48" t="s">
+        <v>34</v>
+      </c>
+      <c r="F48" t="s">
+        <v>191</v>
+      </c>
+      <c r="G48" t="s">
         <v>217</v>
       </c>
-      <c r="E48" t="s">
-        <v>19</v>
-      </c>
-      <c r="F48" t="s">
-        <v>218</v>
-      </c>
-      <c r="G48" t="s">
-        <v>210</v>
-      </c>
       <c r="H48" t="s">
-        <v>219</v>
+        <v>172</v>
       </c>
       <c r="I48" t="s">
-        <v>220</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
+        <v>128</v>
+      </c>
+      <c r="J48" t="s">
+        <v>128</v>
       </c>
       <c r="K48">
-        <v>2415</v>
+        <v>1245</v>
       </c>
       <c r="L48">
         <v>0</v>
       </c>
       <c r="M48" t="s">
-        <v>221</v>
-      </c>
-      <c r="N48">
-        <v>81</v>
+        <v>192</v>
+      </c>
+      <c r="N48" t="s">
+        <v>41</v>
       </c>
       <c r="O48">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
@@ -3344,7 +3344,7 @@
         <v>17</v>
       </c>
       <c r="D49" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="E49" t="s">
         <v>19</v>
@@ -3359,7 +3359,7 @@
         <v>226</v>
       </c>
       <c r="I49" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -3371,13 +3371,13 @@
         <v>0</v>
       </c>
       <c r="M49" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="N49">
         <v>71</v>
       </c>
       <c r="O49" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
@@ -3391,22 +3391,22 @@
         <v>17</v>
       </c>
       <c r="D50" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E50" t="s">
-        <v>103</v>
+        <v>34</v>
       </c>
       <c r="F50" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="G50" t="s">
         <v>228</v>
       </c>
       <c r="H50" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="I50" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -3418,13 +3418,13 @@
         <v>0</v>
       </c>
       <c r="M50" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="N50">
         <v>67</v>
       </c>
       <c r="O50" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
